--- a/biology/Médecine/Oside/Oside.xlsx
+++ b/biology/Médecine/Oside/Oside.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Un oside est un polymère d'oses parmi lesquels on distingue : 
 les hétérosides dont l'hydrolyse produit des oses et des composés non glucidiques (aglycone) ;
@@ -520,11 +532,13 @@
           <t>Glucide complexe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En alimentation humaine, les sucres complexes sont ceux contenus dans les légumineuses (haricots secs, pois, lentilles, etc.), les pommes de terre et les céréales (blé, maïs, riz). L'amidon est le principal glucide complexe.
 Sur le plan diététique, les sucres complexes sont en opposition aux sucres simples. Les glucides simples sont du type ose (monosaccharide : contient un seul ose) comme le glucose et le fructose ou diholoside (disaccharide : contient deux oses) comme le saccharose, le maltose et le lactose.
-La rapidité de l'absorption des glucides par l'organisme se définit par l'indice glycémique. Ainsi les sucres simples ne sont pas toujours les plus vite assimilés par l'organisme. Par exemple le fructose est absorbé moins vite que l’amidon du pain blanc ou des céréales[1].
+La rapidité de l'absorption des glucides par l'organisme se définit par l'indice glycémique. Ainsi les sucres simples ne sont pas toujours les plus vite assimilés par l'organisme. Par exemple le fructose est absorbé moins vite que l’amidon du pain blanc ou des céréales.
 </t>
         </is>
       </c>
